--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -16,17 +16,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>a</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>959e4fc1aa5787e67ae143901b2d2673</t>
+  </si>
+  <si>
+    <t>查询成功</t>
+  </si>
+  <si>
+    <t>晴</t>
+  </si>
+  <si>
+    <t>keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +61,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -70,9 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,42 +405,43 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/data1.xlsx
+++ b/data/data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>济南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +409,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -439,7 +443,9 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
